--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_211.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_211.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,393 +488,443 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_227</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.05625</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min/b3'], ['E', 'A:min', 'A:min/b3']]</t>
-        </is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>jaah_79</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1120967741935484</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['G', 'C:min', 'C:min']]</t>
+          <t>[['G#:dim7', 'F:maj/C', 'C:7']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(5.67204, 8.841564), (53.795396, 59.623605)]</t>
+          <t>[['E:dim7', 'Bb', 'F:7']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(24.76, 30.02), (14.82, 20.76)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:01:16.400000', '0:01:18.720000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:15.800000', '0:00:17.410000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.296474358974359</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_191</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1009615384615385</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['B', 'F#', 'B', 'F#', 'B']]</t>
+          <t>[['F#:7/B', 'B:min', 'E:min/B']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(9.06, 11.98)]</t>
+          <t>[['Bb:7', 'Eb:min', 'Ab:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(151.259637, 157.900544)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:00:23.020000', '0:00:30.140000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:08.620975', '0:00:14.367913')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_297</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1076555023923445</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G', 'G:7', 'C'], ['C', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'Bb'], ['Bb', 'C:maj', 'F:maj']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(51.641107, 57.139232), (18.675377, 23.261318)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(13.155, 20.379), (63.861, 66.732)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>[('0:00:21.780000', '0:00:25.300000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:58.320000', '0:00:59.680000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_156</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1882352941176471</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(43.12, 59.64)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(9.9, 34.68)]</t>
+          <t>[('0:00:11.070127', '0:00:13.723731')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:02:04.920000', '0:02:08.840000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1897435897435897</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F', 'C/3', 'D:min7'], ['G', 'D/3', 'E:min'], ['C', 'C/7', 'A:min'], ['C', 'F/5', 'C']]</t>
-        </is>
+          <t>isophonics_275</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_127</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1899350649350649</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C'], ['C:maj/G', 'G:maj', 'A:min/C'], ['G:maj', 'G:maj', 'E:min'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['C', 'G', 'C'], ['D', 'G', 'C'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(63.837, 65.89), (253.215, 258.972), (9.227, 21.36), (5.121, 12.601)]</t>
+          <t>[['G', 'D', 'G'], ['A', 'D', 'G'], ['D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(71.4, 74.7), (24.22, 30.48), (10.46, 19.06), (21.58, 29.34)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:24.401147', '0:00:28.461467'), ('0:00:28.800769', '0:00:40.713165'), ('0:00:08.158789', '0:00:22.589990')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:06.644221', '0:00:13.657911'), ('0:00:00.440395', '0:00:09.431879'), ('0:00:01.014823', '0:00:12.241493')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_10</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_45</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1148351648351648</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:7', 'Bb:7', 'Eb:maj6']]</t>
-        </is>
+          <t>isophonics_123</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>jaah_52</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.08830950378469302</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb:maj6']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(37.85, 45.93)]</t>
+          <t>[['F', 'Bb', 'F']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(38.76, 41.58)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:08.413696', '0:00:11.072593')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:01:02.530000', '0:01:06.230000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1785714285714286</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'G'], ['A', 'D', 'D/5'], ['D', 'G', 'D']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_123</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4267241379310345</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:maj', 'G:maj'], ['A:maj', 'D:maj', 'D:maj'], ['D:maj', 'G:maj', 'D:maj']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(0.440395, 9.431879), (13.657911, 17.965212), (1.014823, 12.241493)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(9.967, 16.743), (45.298, 63.135), (11.384, 18.318)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:08.413696', '0:00:11.072593')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2196969696969697</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min']]</t>
-        </is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_64</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['A', 'E', 'A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(14.0, 16.38)]</t>
+          <t>[['D', 'A', 'D', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(7.4, 12.02)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:35.197913', '0:00:52.299410')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:02:06.506000', '0:02:28.631000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1726973684210526</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_180</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_269</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3540229885057471</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G/3', 'C', 'G']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(6.357029, 23.632675)]</t>
+          <t>[['A:min', 'E', 'A:min', 'E', 'A:min', 'E', 'A:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(13.079206, 17.500916)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
+          <t>[('0:00:18.100000', '0:00:45.980000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:38.841000', '0:00:47.891000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_166</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2125</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G', 'G', 'D:7']]</t>
-        </is>
+          <t>isophonics_135</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4402173913043478</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C', 'C/G', 'G:7']]</t>
+          <t>[['B', 'E', 'A'], ['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(0.440395, 12.905056)]</t>
+          <t>[['D', 'G', 'C'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(242.22, 244.56)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:13.846500', '0:00:18.745911'), ('0:00:07.646772', '0:00:12.917702')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:11.337709', '0:00:19.847823'), ('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -877,228 +932,204 @@
           <t>schubert-winterreise_114</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>0.5397727272727273</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(16.04, 21.0)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(27.6, 47.44)]</t>
+          <t>[('0:02:38.280000', '0:02:43.560000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:02:40.060000', '0:02:44.460000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_61</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_215</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1306715063520871</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'C#', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min'], ['G:min', 'D:maj/G', 'G:min']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(24.387324, 27.452358), (3.744784, 6.774988)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(15.78, 21.28), (7.48, 13.84)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:02:40.060000', '0:02:44.460000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:02:32.440000', '0:02:37.160000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_214</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.3819444444444445</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_206</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(0.8, 10.54)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(9.2, 26.6)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:14.460000', '0:00:19.040000'), ('0:00:24.660000', '0:00:27.760000'), ('0:00:19.700000', '0:00:21.360000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:12.980000', '0:00:17.200000'), ('0:00:22.600000', '0:00:25.720000'), ('0:00:17.900000', '0:00:19.440000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.5397727272727273</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_105</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_116</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(16.04, 21.0)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(24.52, 47.24)]</t>
+          <t>[('0:00:09.140000', '0:01:50.260000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:08.440000', '0:02:12.720000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1060794044665012</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A', 'F#:min', 'D'], ['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_81</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E', 'C#:min', 'A/3'], ['A/3', 'D', 'A']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(0.440395, 6.589229), (39.724104, 43.706326)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(126.384, 130.188), (4.25, 9.179)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:19.260000', '0:00:22.260000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:58.780000', '0:01:01.540000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_268</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_294</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.08697478991596638</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A', 'A', 'A']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G/3', 'G', 'G']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(46.365011, 53.946326)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(1.366439, 5.255782)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
